--- a/data-raw/firms/compustat.xlsx
+++ b/data-raw/firms/compustat.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MUcke\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB462A0E-2EAD-4A4E-8DE1-10378A495478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B958C03-FA4B-4F97-80C9-2A8034C34A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24830,7 +24825,7 @@
   <dimension ref="A1:E2428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66120,6 +66115,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>